--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>デジョンテーブル</t>
     <phoneticPr fontId="1"/>
@@ -40,16 +40,6 @@
   <si>
     <t>リンクの選択</t>
     <rPh sb="4" eb="6">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チーム名を選択する</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
       <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -580,6 +570,86 @@
     <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム名一覧を
+表示する</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム名一覧が表示されていること</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常にチーム名一覧が
+表示されるか</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザが起動していること</t>
+    <rPh sb="5" eb="7">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ブラウザのURL入力欄に
+「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://localhost:8080/ex-intermeditate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」と
+入力し、Enterボタンを押下する</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -631,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -641,6 +711,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1001,166 +1077,187 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>25</v>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>28</v>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>